--- a/documentation/logboek/logboek.xlsx
+++ b/documentation/logboek/logboek.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbe\GLU\Git\WeBuilders\documentation\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2958AB-0329-4895-BF72-12339A393756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3E80F-17DB-4918-92F7-69D4B4127B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4200" yWindow="2268" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerben" sheetId="1" r:id="rId1"/>
+    <sheet name="Wester" sheetId="2" r:id="rId2"/>
+    <sheet name="Garon" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Dag</t>
   </si>
@@ -447,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,4 +670,458 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B31B03B-DA3F-4412-8D9C-93DCC3C8BC75}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="62.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>44882</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.53125</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4180284E-C559-42C2-A5F1-1D235DA9BAD4}">
+  <dimension ref="B2:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="79.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="6">
+        <v>44882</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2.7777777777777776E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F4" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.53125</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.10416666666666667</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documentation/logboek/logboek.xlsx
+++ b/documentation/logboek/logboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbe\GLU\Git\WeBuilders\documentation\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A3E80F-17DB-4918-92F7-69D4B4127B5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60BBF1-78A6-48FD-A6AB-20B2FF3FE18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
   <si>
     <t>Dag</t>
   </si>
@@ -51,6 +51,12 @@
   </si>
   <si>
     <t>Samenwerkingscontract, debriefing opstellen</t>
+  </si>
+  <si>
+    <t>Mobile websites analyseren, onderzoek naar mobile friendly design</t>
+  </si>
+  <si>
+    <t>Websites analyseren, wireframes en sitemap maken</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -167,6 +173,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -449,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,32 +517,51 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>0.53125</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -677,7 +705,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -735,32 +763,51 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>0.53125</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -903,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4180284E-C559-42C2-A5F1-1D235DA9BAD4}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,32 +1009,51 @@
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>0.53125</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="10">
+        <v>44883</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="E6" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="F6" s="9">
+        <v>8.3333333333333329E-2</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
+      <c r="C7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.63541666666666663</v>
+      </c>
+      <c r="E7" s="9">
+        <v>0.67708333333333337</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>

--- a/documentation/logboek/logboek.xlsx
+++ b/documentation/logboek/logboek.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbe\GLU\Git\WeBuilders\documentation\logboek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbe\GLU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A60BBF1-78A6-48FD-A6AB-20B2FF3FE18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1035E7-7A6B-4810-AFA7-281D6FB869DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
   <si>
     <t>Dag</t>
   </si>
@@ -57,6 +57,15 @@
   </si>
   <si>
     <t>Websites analyseren, wireframes en sitemap maken</t>
+  </si>
+  <si>
+    <t>Werken aan home page prototype 1</t>
+  </si>
+  <si>
+    <t>Gewerkt aan prototype 3</t>
+  </si>
+  <si>
+    <t>Gewerkt aan prototype 2</t>
   </si>
 </sst>
 </file>
@@ -175,7 +184,7 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -458,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -532,43 +541,53 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>44883</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.59375</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="10">
+        <v>44886</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -705,7 +724,7 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,43 +797,53 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>44883</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.59375</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="10">
+        <v>44886</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -950,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4180284E-C559-42C2-A5F1-1D235DA9BAD4}">
   <dimension ref="B2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1024,43 +1053,53 @@
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="10">
+      <c r="B6" s="6">
         <v>44883</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.51041666666666663</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>0.59375</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="8">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>0.63541666666666663</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="11">
         <v>0.67708333333333337</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="11">
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="B8" s="10">
+        <v>44886</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="F8" s="9">
+        <v>0.1111111111111111</v>
+      </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>

--- a/documentation/logboek/logboek.xlsx
+++ b/documentation/logboek/logboek.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gerbe\GLU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\garry\Desktop\glu_webstorm\WeBuilders\documentation\logboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1035E7-7A6B-4810-AFA7-281D6FB869DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23992A2B-2D97-478A-8D51-EA4AA3E32C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gerben" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Dag</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Gewerkt aan prototype 2</t>
+  </si>
+  <si>
+    <t>protypes presenteren</t>
   </si>
 </sst>
 </file>
@@ -187,7 +190,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -471,12 +474,12 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="80.21875" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -493,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>44882</v>
       </c>
@@ -510,7 +513,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -525,7 +528,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -540,7 +543,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>44883</v>
       </c>
@@ -557,7 +560,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -572,7 +575,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>44886</v>
       </c>
@@ -589,125 +592,125 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -727,12 +730,12 @@
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="62.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -749,7 +752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>44882</v>
       </c>
@@ -766,7 +769,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -781,7 +784,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -796,7 +799,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>44883</v>
       </c>
@@ -813,7 +816,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -828,7 +831,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>44886</v>
       </c>
@@ -845,125 +848,125 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -980,15 +983,15 @@
   <dimension ref="B2:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="79.44140625" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1005,7 +1008,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="6">
         <v>44882</v>
       </c>
@@ -1022,7 +1025,7 @@
         <v>2.7777777777777776E-2</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -1037,7 +1040,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -1052,7 +1055,7 @@
         <v>0.10416666666666667</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="6">
         <v>44883</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
       <c r="C7" s="12" t="s">
         <v>8</v>
@@ -1084,7 +1087,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <v>44886</v>
       </c>
@@ -1101,125 +1104,155 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="10">
+        <v>44887</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="10">
+        <v>44888</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="10">
+        <v>44889</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="F11" s="9">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
